--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_37.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2590667.543260329</v>
+        <v>2723082.420760696</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13236035.67526077</v>
+        <v>11843801.51954497</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1763776.908577128</v>
+        <v>612367.9462114754</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5408022.138855575</v>
+        <v>5706862.417742316</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>80.13760724809656</v>
       </c>
       <c r="E2" t="n">
         <v>21.71717045362101</v>
@@ -677,7 +679,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>378.1952994806465</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -823,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
@@ -832,7 +834,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -865,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>104.9852699734185</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -883,7 +885,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>47.6672667987086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>145.6144408620736</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
         <v>19.05969460684969</v>
@@ -911,10 +913,10 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>208.3319186153844</v>
       </c>
     </row>
     <row r="6">
@@ -1060,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
@@ -1069,7 +1071,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>16.29674966968264</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>153.612175457666</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
@@ -1120,7 +1122,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1135,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>230.7788055297379</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>82.77087525591682</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>75.08038855286904</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>94.73608632623439</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1385,7 +1387,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>131.7703951710258</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -1421,10 +1423,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -1433,10 +1435,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1528,25 +1530,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>12.45745267233576</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>4.32206238845632</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
@@ -1594,7 +1596,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1612,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
@@ -1619,7 +1621,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
         <v>294.8896947407055</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>85.87119729981721</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
@@ -1765,16 +1767,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>91.74981090988285</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>209.5394927514014</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486159</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -1859,7 +1861,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407063</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
         <v>34.5479025439635</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -2008,7 +2010,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,7 +2019,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -2062,7 +2064,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>11.4769096891962</v>
+        <v>221.9290366958883</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2081,7 +2083,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868337</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
@@ -2239,25 +2241,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
@@ -2296,13 +2298,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>42.31046081014885</v>
+        <v>8.917567874935775</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>158.0769892308723</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>15.69943009345852</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2716,13 +2718,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>70.66230422638786</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
@@ -2761,7 +2763,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2776,7 +2778,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>133.9073134702971</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2962,13 +2964,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,22 +3003,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>68.22238607350829</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>169.9835185437313</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>98.15366458399308</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>11.17736360794273</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3278,7 +3280,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864463</v>
       </c>
       <c r="H35" t="n">
         <v>294.8896947407055</v>
@@ -3430,7 +3432,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
@@ -3472,16 +3474,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7573427009623855</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3673,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>181.2635869532363</v>
+        <v>208.8508774767494</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3727,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3743,10 +3745,10 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>421.717170453622</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
@@ -3755,10 +3757,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>281.098814663499</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -3806,7 +3808,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3895,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
@@ -3913,10 +3915,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060533</v>
       </c>
       <c r="T43" t="n">
-        <v>149.5770106173639</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
@@ -3958,13 +3960,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>172.8456332022683</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3980,7 +3982,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068506</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
@@ -4034,16 +4036,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>212.0586029882145</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4138,19 +4140,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>101.9929615813393</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>147.8541881549513</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>420.2118856597648</v>
+        <v>518.593761001569</v>
       </c>
       <c r="C2" t="n">
-        <v>397.351559713469</v>
+        <v>495.7334350552732</v>
       </c>
       <c r="D2" t="n">
-        <v>378.0993429388733</v>
+        <v>414.7863570268928</v>
       </c>
       <c r="E2" t="n">
-        <v>356.162807127135</v>
+        <v>392.8498212151544</v>
       </c>
       <c r="F2" t="n">
-        <v>335.0790293569393</v>
+        <v>371.7660434449587</v>
       </c>
       <c r="G2" t="n">
-        <v>334.7803709867919</v>
+        <v>371.4673850748114</v>
       </c>
       <c r="H2" t="n">
-        <v>36.91199246082674</v>
+        <v>73.59900654884622</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J2" t="n">
-        <v>36.91199246082674</v>
+        <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>357.6855680512415</v>
+        <v>401.305594109213</v>
       </c>
       <c r="L2" t="n">
-        <v>814.4714747539724</v>
+        <v>401.305594109213</v>
       </c>
       <c r="M2" t="n">
-        <v>814.4714747539724</v>
+        <v>880.2445183516411</v>
       </c>
       <c r="N2" t="n">
-        <v>1271.257381456703</v>
+        <v>880.2445183516411</v>
       </c>
       <c r="O2" t="n">
-        <v>1728.043288159434</v>
+        <v>1359.183442594069</v>
       </c>
       <c r="P2" t="n">
-        <v>1728.043288159434</v>
+        <v>1361.464950229786</v>
       </c>
       <c r="Q2" t="n">
-        <v>1728.043288159434</v>
+        <v>1817.550429733969</v>
       </c>
       <c r="R2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S2" t="n">
-        <v>1845.599623041337</v>
+        <v>1830.739470489012</v>
       </c>
       <c r="T2" t="n">
-        <v>1845.599623041337</v>
+        <v>1609.813899533645</v>
       </c>
       <c r="U2" t="n">
-        <v>1587.244713637749</v>
+        <v>1351.458990130057</v>
       </c>
       <c r="V2" t="n">
-        <v>1229.755298763999</v>
+        <v>1351.458990130057</v>
       </c>
       <c r="W2" t="n">
-        <v>1229.755298763999</v>
+        <v>1351.458990130057</v>
       </c>
       <c r="X2" t="n">
-        <v>818.0352999317458</v>
+        <v>939.7389912978047</v>
       </c>
       <c r="Y2" t="n">
-        <v>436.0198459108908</v>
+        <v>938.442125293099</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250719</v>
+        <v>384.4797643565624</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980091</v>
+        <v>279.7778306294996</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809132</v>
+        <v>186.1320003124038</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851708</v>
+        <v>92.07822853000783</v>
       </c>
       <c r="H3" t="n">
-        <v>36.9119924608267</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="I3" t="n">
-        <v>36.9119924608267</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J3" t="n">
-        <v>36.9119924608267</v>
+        <v>310.3996245719085</v>
       </c>
       <c r="K3" t="n">
-        <v>36.91199246082674</v>
+        <v>789.3385488143367</v>
       </c>
       <c r="L3" t="n">
-        <v>493.6978991635576</v>
+        <v>1268.277473056765</v>
       </c>
       <c r="M3" t="n">
-        <v>493.6978991635576</v>
+        <v>1383.244289010048</v>
       </c>
       <c r="N3" t="n">
-        <v>493.6978991635576</v>
+        <v>1383.244289010048</v>
       </c>
       <c r="O3" t="n">
-        <v>950.4838058662885</v>
+        <v>1383.244289010048</v>
       </c>
       <c r="P3" t="n">
-        <v>1306.794406253903</v>
+        <v>1383.244289010048</v>
       </c>
       <c r="Q3" t="n">
-        <v>1763.580312956634</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="R3" t="n">
-        <v>1845.599623041337</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1764.275375602591</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1437.627243819906</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1232.654104959172</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>474.7993046517582</v>
+        <v>786.593921822241</v>
       </c>
       <c r="C4" t="n">
-        <v>474.7993046517582</v>
+        <v>786.593921822241</v>
       </c>
       <c r="D4" t="n">
-        <v>474.7993046517582</v>
+        <v>786.593921822241</v>
       </c>
       <c r="E4" t="n">
-        <v>474.7993046517582</v>
+        <v>620.3857159750945</v>
       </c>
       <c r="F4" t="n">
-        <v>302.9375304263186</v>
+        <v>448.523941749655</v>
       </c>
       <c r="G4" t="n">
-        <v>136.6805607205508</v>
+        <v>282.2669720438871</v>
       </c>
       <c r="H4" t="n">
-        <v>136.6805607205508</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J4" t="n">
-        <v>94.40332068498475</v>
+        <v>96.19346351647545</v>
       </c>
       <c r="K4" t="n">
-        <v>320.9309218908219</v>
+        <v>165.7127968734999</v>
       </c>
       <c r="L4" t="n">
-        <v>430.8949765933859</v>
+        <v>520.4021181679207</v>
       </c>
       <c r="M4" t="n">
-        <v>822.0807715636367</v>
+        <v>911.5879131381714</v>
       </c>
       <c r="N4" t="n">
-        <v>1199.572282439673</v>
+        <v>1289.079424014207</v>
       </c>
       <c r="O4" t="n">
-        <v>1555.000411119436</v>
+        <v>1644.50755269397</v>
       </c>
       <c r="P4" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="Q4" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R4" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S4" t="n">
-        <v>1845.599623041337</v>
+        <v>1829.061037369994</v>
       </c>
       <c r="T4" t="n">
-        <v>1602.260275267237</v>
+        <v>1585.721689595894</v>
       </c>
       <c r="U4" t="n">
-        <v>1322.075826767541</v>
+        <v>1585.721689595894</v>
       </c>
       <c r="V4" t="n">
-        <v>1040.36435937557</v>
+        <v>1304.010222203923</v>
       </c>
       <c r="W4" t="n">
-        <v>765.5119555480831</v>
+        <v>1029.157818376436</v>
       </c>
       <c r="X4" t="n">
-        <v>522.9480589938881</v>
+        <v>786.593921822241</v>
       </c>
       <c r="Y4" t="n">
-        <v>474.7993046517582</v>
+        <v>786.593921822241</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>122.3435071337996</v>
+        <v>866.7353935451185</v>
       </c>
       <c r="C5" t="n">
-        <v>99.48318118750379</v>
+        <v>439.8346635584186</v>
       </c>
       <c r="D5" t="n">
-        <v>80.23096441290814</v>
+        <v>420.5824467838229</v>
       </c>
       <c r="E5" t="n">
-        <v>58.29442860116974</v>
+        <v>398.6459109720846</v>
       </c>
       <c r="F5" t="n">
-        <v>37.21065083097405</v>
+        <v>377.5621332018889</v>
       </c>
       <c r="G5" t="n">
-        <v>36.91199246082674</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082674</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>399.5154512777223</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>399.5154512777223</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L5" t="n">
-        <v>399.5154512777223</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M5" t="n">
-        <v>475.942330131692</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N5" t="n">
-        <v>932.7282368344229</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O5" t="n">
-        <v>1389.514143537154</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P5" t="n">
-        <v>1389.514143537154</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>1845.599623041337</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1741.232328914477</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>1741.232328914477</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>1482.877419510889</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V5" t="n">
-        <v>1482.877419510889</v>
+        <v>1504.699634058179</v>
       </c>
       <c r="W5" t="n">
-        <v>1086.486069811236</v>
+        <v>1504.699634058179</v>
       </c>
       <c r="X5" t="n">
-        <v>674.7660709789836</v>
+        <v>1497.02003926633</v>
       </c>
       <c r="Y5" t="n">
-        <v>269.428800933874</v>
+        <v>1286.583757836649</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.035483492282</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>486.5295800097867</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250718</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>277.987687798009</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809131</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851715</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>36.91199246082674</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L6" t="n">
-        <v>36.91199246082674</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M6" t="n">
-        <v>475.2419029331441</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N6" t="n">
-        <v>932.027809635875</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O6" t="n">
-        <v>932.027809635875</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P6" t="n">
-        <v>1388.813716338606</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="Q6" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.395439900269</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.132727792389</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590523</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123447</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>474.7993046517582</v>
+        <v>665.0551063900352</v>
       </c>
       <c r="C7" t="n">
-        <v>474.7993046517582</v>
+        <v>665.0551063900352</v>
       </c>
       <c r="D7" t="n">
-        <v>474.7993046517582</v>
+        <v>665.0551063900352</v>
       </c>
       <c r="E7" t="n">
-        <v>474.7993046517582</v>
+        <v>498.8469005428888</v>
       </c>
       <c r="F7" t="n">
-        <v>302.9375304263186</v>
+        <v>326.9851263174492</v>
       </c>
       <c r="G7" t="n">
-        <v>136.6805607205508</v>
+        <v>160.7281566116813</v>
       </c>
       <c r="H7" t="n">
-        <v>136.6805607205508</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L7" t="n">
-        <v>320.9309218908219</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>712.1167168610727</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1072.572152198911</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>1845.599623041337</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>1845.599623041337</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="T7" t="n">
-        <v>1845.599623041337</v>
+        <v>1934.53329137545</v>
       </c>
       <c r="U7" t="n">
-        <v>1690.435809447735</v>
+        <v>1654.348842875754</v>
       </c>
       <c r="V7" t="n">
-        <v>1408.724342055764</v>
+        <v>1372.637375483783</v>
       </c>
       <c r="W7" t="n">
-        <v>1133.871938228277</v>
+        <v>1097.784971656296</v>
       </c>
       <c r="X7" t="n">
-        <v>891.3080416740818</v>
+        <v>855.2210751021008</v>
       </c>
       <c r="Y7" t="n">
-        <v>664.9652733638238</v>
+        <v>855.2210751021008</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1334.464719255012</v>
+        <v>767.0800483381174</v>
       </c>
       <c r="C8" t="n">
-        <v>907.5639892683118</v>
+        <v>744.2197223918216</v>
       </c>
       <c r="D8" t="n">
-        <v>484.2713684533122</v>
+        <v>724.9675056172259</v>
       </c>
       <c r="E8" t="n">
-        <v>58.29442860116974</v>
+        <v>703.0309698054875</v>
       </c>
       <c r="F8" t="n">
-        <v>37.21065083097405</v>
+        <v>681.9471920352918</v>
       </c>
       <c r="G8" t="n">
-        <v>36.91199246082674</v>
+        <v>277.6081296247404</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>399.5154512777223</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>856.3013579804531</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L8" t="n">
-        <v>1313.087264683184</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M8" t="n">
-        <v>1313.087264683184</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N8" t="n">
-        <v>1728.043288159434</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O8" t="n">
-        <v>1728.043288159434</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P8" t="n">
-        <v>1728.043288159434</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q8" t="n">
-        <v>1728.043288159434</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>1845.599623041337</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U8" t="n">
-        <v>1845.599623041337</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="V8" t="n">
-        <v>1845.599623041337</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="W8" t="n">
-        <v>1845.599623041337</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="X8" t="n">
-        <v>1837.920028249488</v>
+        <v>1592.265682674757</v>
       </c>
       <c r="Y8" t="n">
-        <v>1754.313083546542</v>
+        <v>1186.928412629647</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809132</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>308.6094817404178</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>765.3953884431487</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L9" t="n">
-        <v>765.3953884431487</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M9" t="n">
-        <v>765.3953884431487</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N9" t="n">
-        <v>1222.18129514588</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O9" t="n">
-        <v>1222.18129514588</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P9" t="n">
-        <v>1388.813716338606</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>132.6050089519726</v>
+        <v>702.082607085077</v>
       </c>
       <c r="C10" t="n">
-        <v>132.6050089519726</v>
+        <v>530.110043963993</v>
       </c>
       <c r="D10" t="n">
-        <v>132.6050089519726</v>
+        <v>454.2712676479637</v>
       </c>
       <c r="E10" t="n">
-        <v>132.6050089519726</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="F10" t="n">
-        <v>132.6050089519726</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="G10" t="n">
-        <v>132.6050089519726</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>36.91199246082674</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>36.91199246082674</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>76.20565529896515</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>430.8949765933859</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>822.0807715636367</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1199.572282439673</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1555.000411119436</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1845.599623041337</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1798.56100972851</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>1628.425962247645</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1628.425962247645</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="U10" t="n">
-        <v>1348.241513747949</v>
+        <v>1727.553143168988</v>
       </c>
       <c r="V10" t="n">
-        <v>1066.530046355978</v>
+        <v>1445.841675777017</v>
       </c>
       <c r="W10" t="n">
-        <v>791.6776425284911</v>
+        <v>1170.98927194953</v>
       </c>
       <c r="X10" t="n">
-        <v>549.1137459742962</v>
+        <v>928.425375395335</v>
       </c>
       <c r="Y10" t="n">
-        <v>322.7709776640382</v>
+        <v>702.082607085077</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2346.116065158184</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C11" t="n">
-        <v>1919.215335171484</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D11" t="n">
-        <v>1495.922714356484</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>1069.945774504342</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>644.8215926937421</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G11" t="n">
-        <v>240.4825302831907</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H11" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I11" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>72.48424976299954</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>359.5929013125328</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1256.585492129652</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M11" t="n">
-        <v>2153.578082946771</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N11" t="n">
-        <v>3050.570673763891</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O11" t="n">
-        <v>3050.570673763891</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P11" t="n">
-        <v>3050.570673763891</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q11" t="n">
-        <v>3506.656153268074</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R11" t="n">
-        <v>3624.212488149977</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3519.845194023117</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>3519.845194023117</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>3519.845194023117</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>3162.355779149367</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>2765.964429449714</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>2765.964429449714</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
-        <v>2765.964429449714</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>344.1817390425906</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K12" t="n">
-        <v>934.6666656109302</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L12" t="n">
-        <v>934.6666656109302</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M12" t="n">
-        <v>1831.65925642805</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N12" t="n">
-        <v>1831.65925642805</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O12" t="n">
-        <v>1831.65925642805</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P12" t="n">
-        <v>1831.65925642805</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q12" t="n">
-        <v>1831.65925642805</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R12" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>582.575556815291</v>
+        <v>552.7245472657505</v>
       </c>
       <c r="C13" t="n">
-        <v>410.6029936942069</v>
+        <v>552.7245472657505</v>
       </c>
       <c r="D13" t="n">
-        <v>410.6029936942069</v>
+        <v>552.7245472657505</v>
       </c>
       <c r="E13" t="n">
-        <v>410.6029936942069</v>
+        <v>386.516341418604</v>
       </c>
       <c r="F13" t="n">
-        <v>238.7412194687674</v>
+        <v>214.6545671931645</v>
       </c>
       <c r="G13" t="n">
-        <v>72.48424976299954</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H13" t="n">
-        <v>72.48424976299954</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I13" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2252.897277176128</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>2082.762229695263</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T13" t="n">
-        <v>2078.396510110963</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U13" t="n">
-        <v>1798.212061611267</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V13" t="n">
-        <v>1516.500594219296</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W13" t="n">
-        <v>1241.648190391809</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X13" t="n">
-        <v>999.0842938376145</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y13" t="n">
-        <v>772.7415255273565</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1683.251351194936</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C14" t="n">
-        <v>1256.350621208236</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D14" t="n">
-        <v>1256.350621208236</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>830.3736813560932</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>405.2494995454934</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G14" t="n">
-        <v>405.2494995454934</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H14" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I14" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>72.48424976299953</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>787.9925577384986</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1684.985148555618</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M14" t="n">
-        <v>2581.977739372737</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N14" t="n">
-        <v>2581.977739372737</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O14" t="n">
-        <v>3427.122389523549</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P14" t="n">
-        <v>3427.122389523549</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q14" t="n">
-        <v>3624.212488149976</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R14" t="n">
-        <v>3624.212488149976</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3537.473905018848</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>3316.548334063481</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>3316.548334063481</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>3316.548334063481</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>2920.156984363828</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>2508.436985531575</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
-        <v>2103.099715486465</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>125.8603430006899</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>344.1817390425906</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>344.1817390425906</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L15" t="n">
-        <v>344.1817390425906</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.17432985971</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N15" t="n">
-        <v>1335.007093396027</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="O15" t="n">
-        <v>1335.007093396027</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P15" t="n">
-        <v>1335.007093396027</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q15" t="n">
-        <v>1799.152570258806</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>720.6074680331991</v>
+        <v>913.8534934449018</v>
       </c>
       <c r="C16" t="n">
-        <v>720.6074680331991</v>
+        <v>741.8809303238178</v>
       </c>
       <c r="D16" t="n">
-        <v>720.6074680331991</v>
+        <v>578.5641574505885</v>
       </c>
       <c r="E16" t="n">
-        <v>554.3992621860526</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F16" t="n">
-        <v>382.537487960613</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G16" t="n">
-        <v>216.2805182548451</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H16" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2252.897277176128</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S16" t="n">
-        <v>2082.762229695263</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T16" t="n">
-        <v>1990.085653018613</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U16" t="n">
-        <v>1709.901204518918</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V16" t="n">
-        <v>1428.189737126947</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W16" t="n">
-        <v>1153.337333299459</v>
+        <v>1330.362230467225</v>
       </c>
       <c r="X16" t="n">
-        <v>910.7734367452647</v>
+        <v>1330.362230467225</v>
       </c>
       <c r="Y16" t="n">
-        <v>910.7734367452647</v>
+        <v>1104.019462156967</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
         <v>137.1995846623573</v>
@@ -5513,22 +5515,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L17" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N17" t="n">
-        <v>4090.576687723259</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O17" t="n">
-        <v>4935.721337874071</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P17" t="n">
         <v>4997.579335409525</v>
@@ -5589,28 +5591,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="M18" t="n">
-        <v>102.3027134058285</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="N18" t="n">
-        <v>102.3027134058285</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
-        <v>991.7839914173002</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>869.8257932127802</v>
+        <v>3679.833785329949</v>
       </c>
       <c r="C19" t="n">
-        <v>697.8532300916962</v>
+        <v>3507.861222208865</v>
       </c>
       <c r="D19" t="n">
-        <v>534.5364572184669</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="E19" t="n">
-        <v>368.3282513713204</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="F19" t="n">
-        <v>368.3282513713204</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="G19" t="n">
-        <v>202.0712816655526</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I19" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L19" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M19" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N19" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O19" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P19" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q19" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U19" t="n">
-        <v>1822.202732251165</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="V19" t="n">
-        <v>1540.491264859194</v>
+        <v>4372.911194331664</v>
       </c>
       <c r="W19" t="n">
-        <v>1528.898426789299</v>
+        <v>4148.740450194403</v>
       </c>
       <c r="X19" t="n">
-        <v>1286.334530235104</v>
+        <v>3906.176553640208</v>
       </c>
       <c r="Y19" t="n">
-        <v>1059.991761924846</v>
+        <v>3679.833785329949</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5738,10 +5740,10 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
         <v>137.1995846623573</v>
@@ -5753,19 +5755,19 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>786.1869982294937</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1715.81204584877</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M20" t="n">
-        <v>2720.098147267829</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N20" t="n">
-        <v>3696.34920575453</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4541.493855905342</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
         <v>4541.493855905342</v>
@@ -5786,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C21" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D21" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E21" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F21" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G21" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H21" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="K21" t="n">
-        <v>692.7876399741681</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="L21" t="n">
-        <v>692.7876399741681</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>4362.434577686964</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R21" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S21" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T21" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U21" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V21" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W21" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X21" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y21" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>612.3940204581201</v>
+        <v>3674.069428056012</v>
       </c>
       <c r="C22" t="n">
-        <v>440.421457337036</v>
+        <v>3674.069428056012</v>
       </c>
       <c r="D22" t="n">
-        <v>440.421457337036</v>
+        <v>3510.752655182783</v>
       </c>
       <c r="E22" t="n">
-        <v>440.421457337036</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="F22" t="n">
-        <v>268.5596831115964</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="G22" t="n">
-        <v>102.3027134058285</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H22" t="n">
-        <v>102.3027134058285</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I22" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L22" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M22" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N22" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O22" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P22" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.580693338092</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T22" t="n">
-        <v>1869.241345563992</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U22" t="n">
-        <v>1589.056897064296</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="V22" t="n">
-        <v>1546.319057862125</v>
+        <v>4365.430568905823</v>
       </c>
       <c r="W22" t="n">
-        <v>1271.466654034638</v>
+        <v>4090.578165078336</v>
       </c>
       <c r="X22" t="n">
-        <v>1028.902757480444</v>
+        <v>4090.578165078336</v>
       </c>
       <c r="Y22" t="n">
-        <v>802.5599891701856</v>
+        <v>3864.235396768077</v>
       </c>
     </row>
     <row r="23">
@@ -5987,22 +5989,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P23" t="n">
         <v>5115.135670291427</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>935.3163081599862</v>
+        <v>843.7708094800807</v>
       </c>
       <c r="C25" t="n">
-        <v>763.3437450389022</v>
+        <v>671.7982463589967</v>
       </c>
       <c r="D25" t="n">
-        <v>600.0269721656729</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="E25" t="n">
-        <v>433.8187663185264</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="F25" t="n">
-        <v>261.9569920930868</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G25" t="n">
-        <v>261.9569920930868</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H25" t="n">
-        <v>118.1607236012412</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6181,16 +6183,16 @@
         <v>1869.241345563992</v>
       </c>
       <c r="V25" t="n">
-        <v>1869.241345563992</v>
+        <v>1587.529878172021</v>
       </c>
       <c r="W25" t="n">
-        <v>1594.388941736505</v>
+        <v>1312.677474344533</v>
       </c>
       <c r="X25" t="n">
-        <v>1351.82504518231</v>
+        <v>1070.113577790339</v>
       </c>
       <c r="Y25" t="n">
-        <v>1125.482276872052</v>
+        <v>843.7708094800807</v>
       </c>
     </row>
     <row r="26">
@@ -6224,25 +6226,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>464.9061722227241</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>1125.089101572745</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>2129.375202991803</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N26" t="n">
-        <v>3105.626261478504</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>3950.770911629316</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
         <v>5115.135670291427</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>913.0255634586812</v>
+        <v>3682.614429408222</v>
       </c>
       <c r="C28" t="n">
-        <v>913.0255634586812</v>
+        <v>3682.614429408222</v>
       </c>
       <c r="D28" t="n">
-        <v>749.7087905854519</v>
+        <v>3682.614429408222</v>
       </c>
       <c r="E28" t="n">
-        <v>583.5005847383054</v>
+        <v>3516.406223561076</v>
       </c>
       <c r="F28" t="n">
-        <v>512.1245198631661</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="G28" t="n">
-        <v>345.8675501573982</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I28" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L28" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M28" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N28" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O28" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P28" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q28" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S28" t="n">
-        <v>2235.67712750613</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T28" t="n">
-        <v>1992.33777973203</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U28" t="n">
-        <v>1712.153331232334</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="V28" t="n">
-        <v>1430.441863840363</v>
+        <v>4092.726745831969</v>
       </c>
       <c r="W28" t="n">
-        <v>1155.589460012876</v>
+        <v>3817.874342004482</v>
       </c>
       <c r="X28" t="n">
-        <v>913.0255634586812</v>
+        <v>3682.614429408222</v>
       </c>
       <c r="Y28" t="n">
-        <v>913.0255634586812</v>
+        <v>3682.614429408222</v>
       </c>
     </row>
     <row r="29">
@@ -6537,19 +6539,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N30" t="n">
         <v>1910.990343986338</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1185.483835930065</v>
+        <v>775.6620294727279</v>
       </c>
       <c r="C31" t="n">
-        <v>1013.511272808982</v>
+        <v>603.6894663516439</v>
       </c>
       <c r="D31" t="n">
-        <v>850.1944999357522</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E31" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6649,22 +6651,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>1996.630578940913</v>
       </c>
       <c r="U31" t="n">
-        <v>1822.202732251165</v>
+        <v>1716.446130441218</v>
       </c>
       <c r="V31" t="n">
-        <v>1650.502208469618</v>
+        <v>1434.734663049246</v>
       </c>
       <c r="W31" t="n">
-        <v>1375.649804642131</v>
+        <v>1434.734663049246</v>
       </c>
       <c r="X31" t="n">
-        <v>1375.649804642131</v>
+        <v>1192.170766495052</v>
       </c>
       <c r="Y31" t="n">
-        <v>1375.649804642131</v>
+        <v>965.8279981847936</v>
       </c>
     </row>
     <row r="32">
@@ -6783,19 +6785,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q33" t="n">
         <v>1910.990343986338</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>686.6827951484232</v>
+        <v>3205.84032174079</v>
       </c>
       <c r="C34" t="n">
-        <v>686.6827951484232</v>
+        <v>3033.867758619706</v>
       </c>
       <c r="D34" t="n">
-        <v>523.3660222751939</v>
+        <v>3033.867758619706</v>
       </c>
       <c r="E34" t="n">
-        <v>357.1578164280475</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="F34" t="n">
-        <v>357.1578164280475</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L34" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M34" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N34" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O34" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P34" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q34" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S34" t="n">
-        <v>2235.67712750613</v>
+        <v>4945.000622810562</v>
       </c>
       <c r="T34" t="n">
-        <v>1992.33777973203</v>
+        <v>4701.661275036462</v>
       </c>
       <c r="U34" t="n">
-        <v>1712.153331232334</v>
+        <v>4421.476826536767</v>
       </c>
       <c r="V34" t="n">
-        <v>1430.441863840363</v>
+        <v>4139.765359144795</v>
       </c>
       <c r="W34" t="n">
-        <v>1155.589460012876</v>
+        <v>3864.912955317308</v>
       </c>
       <c r="X34" t="n">
-        <v>913.0255634586812</v>
+        <v>3622.349058763114</v>
       </c>
       <c r="Y34" t="n">
-        <v>686.6827951484232</v>
+        <v>3396.006290452855</v>
       </c>
     </row>
     <row r="35">
@@ -6911,61 +6913,61 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
         <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E35" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988744</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>1180.414480198223</v>
+        <v>786.1869982294937</v>
       </c>
       <c r="L35" t="n">
-        <v>1463.618246195025</v>
+        <v>1715.81204584877</v>
       </c>
       <c r="M35" t="n">
-        <v>2467.904347614083</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N35" t="n">
-        <v>3444.155406100784</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O35" t="n">
-        <v>4289.300056251596</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P35" t="n">
-        <v>4997.579335409524</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7011,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>964.4851292537592</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L36" t="n">
-        <v>964.4851292537592</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M36" t="n">
-        <v>964.4851292537592</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N36" t="n">
-        <v>964.4851292537592</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O36" t="n">
-        <v>1853.966407265231</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P36" t="n">
-        <v>1853.966407265231</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q36" t="n">
-        <v>1853.966407265231</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1019.275630082919</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C37" t="n">
-        <v>847.3030669618349</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D37" t="n">
-        <v>683.9862940886056</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886056</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F37" t="n">
-        <v>512.124519863166</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G37" t="n">
         <v>345.8675501573982</v>
@@ -7093,10 +7095,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7120,25 +7122,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2235.67712750613</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="T37" t="n">
-        <v>2234.912134878895</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="U37" t="n">
-        <v>2234.912134878895</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="V37" t="n">
-        <v>1953.200667486924</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W37" t="n">
-        <v>1678.348263659437</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X37" t="n">
-        <v>1435.784367105243</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1209.441598794985</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="38">
@@ -7166,7 +7168,7 @@
         <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
@@ -7178,16 +7180,16 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>2110.0395278175</v>
+        <v>1983.783825177544</v>
       </c>
       <c r="M38" t="n">
-        <v>3114.325629236558</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N38" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>4090.576687723259</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
         <v>4541.493855905342</v>
@@ -7254,25 +7256,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>1021.509065974867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>1021.509065974867</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N39" t="n">
-        <v>1021.509065974867</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3436.220184719758</v>
+        <v>913.8534934449018</v>
       </c>
       <c r="C40" t="n">
-        <v>3264.247621598674</v>
+        <v>741.8809303238178</v>
       </c>
       <c r="D40" t="n">
-        <v>3100.930848725445</v>
+        <v>578.5641574505885</v>
       </c>
       <c r="E40" t="n">
-        <v>2934.722642878299</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F40" t="n">
-        <v>2934.722642878299</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G40" t="n">
-        <v>2934.722642878299</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H40" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M40" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N40" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O40" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P40" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q40" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>5115.135670291427</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>4932.041138015431</v>
+        <v>1901.620211038345</v>
       </c>
       <c r="U40" t="n">
-        <v>4651.856689515736</v>
+        <v>1621.435762538649</v>
       </c>
       <c r="V40" t="n">
-        <v>4370.145222123764</v>
+        <v>1621.435762538649</v>
       </c>
       <c r="W40" t="n">
-        <v>4095.292818296277</v>
+        <v>1346.583358711162</v>
       </c>
       <c r="X40" t="n">
-        <v>3852.728921742082</v>
+        <v>1104.019462156967</v>
       </c>
       <c r="Y40" t="n">
-        <v>3626.386153431824</v>
+        <v>1104.019462156967</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2038.76336045279</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C41" t="n">
-        <v>1611.86263046609</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D41" t="n">
-        <v>1611.86263046609</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E41" t="n">
-        <v>1185.885690613948</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>760.7615088033479</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>356.4224463927965</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>72.48424976299953</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>72.48424976299953</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>72.48424976299953</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>969.4768405801186</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>1866.469431397238</v>
+        <v>2856.963518260713</v>
       </c>
       <c r="N41" t="n">
-        <v>2763.462022214357</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="O41" t="n">
-        <v>3608.606672365169</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P41" t="n">
-        <v>3608.606672365169</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q41" t="n">
-        <v>3624.212488149976</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>3624.212488149976</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3624.212488149976</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>3624.212488149976</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
-        <v>3624.212488149976</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>3266.723073276225</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W41" t="n">
-        <v>2870.331723576573</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X41" t="n">
-        <v>2458.61172474432</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>2458.61172474432</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>125.8603430006899</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>79.93089272491136</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>79.93089272491136</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>79.93089272491136</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L42" t="n">
-        <v>916.7297008078175</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M42" t="n">
-        <v>916.7297008078175</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N42" t="n">
-        <v>916.7297008078175</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O42" t="n">
-        <v>1806.210978819289</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P42" t="n">
-        <v>1806.210978819289</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>848.5523309221614</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C43" t="n">
-        <v>676.5797678010774</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D43" t="n">
-        <v>676.5797678010774</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E43" t="n">
-        <v>510.371561953931</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F43" t="n">
-        <v>338.5097877284914</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G43" t="n">
-        <v>172.2528180227235</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H43" t="n">
-        <v>172.2528180227235</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2252.897277176128</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S43" t="n">
-        <v>2252.897277176128</v>
+        <v>2065.542080025268</v>
       </c>
       <c r="T43" t="n">
-        <v>2101.809387663639</v>
+        <v>1822.202732251168</v>
       </c>
       <c r="U43" t="n">
-        <v>1821.624939163943</v>
+        <v>1542.018283751472</v>
       </c>
       <c r="V43" t="n">
-        <v>1539.913471771972</v>
+        <v>1260.306816359501</v>
       </c>
       <c r="W43" t="n">
-        <v>1265.061067944485</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="X43" t="n">
-        <v>1265.061067944485</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="Y43" t="n">
-        <v>1038.718299634227</v>
+        <v>1085.715267670341</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2510.883034420487</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C44" t="n">
-        <v>2083.982304433787</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D44" t="n">
-        <v>1660.689683618787</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>1234.712743766645</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>809.5885619560448</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>405.2494995454934</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K44" t="n">
-        <v>72.48424976299953</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L44" t="n">
-        <v>969.4768405801186</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M44" t="n">
-        <v>1866.469431397238</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N44" t="n">
-        <v>2763.462022214357</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O44" t="n">
-        <v>3608.606672365169</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P44" t="n">
-        <v>3608.606672365169</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q44" t="n">
-        <v>3624.212488149976</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R44" t="n">
-        <v>3624.212488149976</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>3624.212488149976</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>3403.286917194609</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>3144.932007791022</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>2930.731398712017</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W44" t="n">
-        <v>2930.731398712017</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X44" t="n">
-        <v>2930.731398712017</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2930.731398712017</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>125.8603430006899</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>79.93089272491136</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>351.6283820045024</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>942.113308572842</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L45" t="n">
-        <v>1778.912116655748</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M45" t="n">
-        <v>1778.912116655748</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N45" t="n">
-        <v>1778.912116655748</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O45" t="n">
-        <v>1778.912116655748</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P45" t="n">
-        <v>1799.152570258806</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q45" t="n">
-        <v>1799.152570258806</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R45" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>717.7780600963049</v>
+        <v>3375.975369221655</v>
       </c>
       <c r="C46" t="n">
-        <v>545.8054969752209</v>
+        <v>3204.002806100571</v>
       </c>
       <c r="D46" t="n">
-        <v>382.4887241019916</v>
+        <v>3204.002806100571</v>
       </c>
       <c r="E46" t="n">
-        <v>216.2805182548451</v>
+        <v>3100.979612584067</v>
       </c>
       <c r="F46" t="n">
-        <v>216.2805182548451</v>
+        <v>3100.979612584067</v>
       </c>
       <c r="G46" t="n">
-        <v>216.2805182548451</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="H46" t="n">
-        <v>72.48424976299953</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I46" t="n">
-        <v>72.48424976299953</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J46" t="n">
-        <v>129.9755779871575</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K46" t="n">
-        <v>356.5031791929947</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L46" t="n">
-        <v>711.1925004874155</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M46" t="n">
-        <v>1102.378295457666</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N46" t="n">
-        <v>1479.869806333702</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O46" t="n">
-        <v>1835.297935013465</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P46" t="n">
-        <v>2125.897146935366</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q46" t="n">
-        <v>2252.897277176128</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R46" t="n">
-        <v>2252.897277176128</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S46" t="n">
-        <v>2082.762229695263</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="T46" t="n">
-        <v>2082.762229695263</v>
+        <v>4871.796322517327</v>
       </c>
       <c r="U46" t="n">
-        <v>1933.414564892282</v>
+        <v>4591.611874017632</v>
       </c>
       <c r="V46" t="n">
-        <v>1651.70309750031</v>
+        <v>4309.90040662566</v>
       </c>
       <c r="W46" t="n">
-        <v>1376.850693672823</v>
+        <v>4035.048002798173</v>
       </c>
       <c r="X46" t="n">
-        <v>1134.286797118629</v>
+        <v>3792.484106243979</v>
       </c>
       <c r="Y46" t="n">
-        <v>907.9440288083706</v>
+        <v>3566.14133793372</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>359.7783135124</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>521.2079540533997</v>
       </c>
       <c r="N2" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>498.7908651163583</v>
+        <v>521.167650509992</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>39.87991497762192</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
         <v>153.7764225027789</v>
@@ -8055,31 +8057,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>506.1759249873012</v>
       </c>
       <c r="L3" t="n">
-        <v>483.9149924745637</v>
+        <v>506.2917778681974</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>139.2248774348361</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>381.6805385660551</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>484.1469440493127</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8137,10 +8139,10 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464869</v>
+        <v>91.18620329819123</v>
       </c>
       <c r="L4" t="n">
-        <v>132.9935626255638</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
         <v>417.7126065281028</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>114.6301304286942</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>498.7908651163583</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>548.1209608588846</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,25 +8297,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>465.8542658379011</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>482.7429339738759</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>483.1707469651629</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>484.1469440493127</v>
+        <v>181.0208015487716</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8374,16 +8376,16 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>249.7804132464869</v>
+        <v>249.7804132464876</v>
       </c>
       <c r="L7" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
-        <v>384.8453003067499</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
         <v>381.5174992961649</v>
@@ -8450,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>499.7119481929572</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>456.4271212953049</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>571.1449214366446</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
@@ -8474,7 +8476,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,28 +8531,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>483.7991395936675</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>482.7429339738759</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>181.4456529820153</v>
       </c>
       <c r="P9" t="n">
-        <v>190.0864181671784</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8608,10 +8610,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K10" t="n">
-        <v>60.65522297608413</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L10" t="n">
         <v>380.1908016072373</v>
@@ -8629,7 +8631,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,25 +8689,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>325.7733397337319</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>944.3651644701171</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M11" t="n">
-        <v>943.4843849369259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>943.3327448719402</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
         <v>496.8170781441769</v>
@@ -8775,22 +8777,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>929.1499025498222</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>427.5561602122188</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>73.68567082390165</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>944.365164470117</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
-        <v>943.4843849369258</v>
+        <v>877.2336749314295</v>
       </c>
       <c r="N14" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>235.20558230806</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,7 +9005,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
@@ -9012,13 +9014,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>929.1499025498221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>116.1235974421448</v>
+        <v>481.0004784218839</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9027,7 +9029,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9179,7 +9181,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>100.0581876036193</v>
+        <v>466.324307620685</v>
       </c>
       <c r="Q17" t="n">
         <v>36.12467460459804</v>
@@ -9237,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>20.61111433333334</v>
@@ -9246,22 +9248,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>995.5270479465637</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>481.4282914131709</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9401,22 +9403,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>360.2906876703342</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>848.7638096822445</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
         <v>496.8170781441769</v>
@@ -9480,16 +9482,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>153.2864345924293</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574439</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9653,7 +9655,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
@@ -9872,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>705.1634862205228</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9890,10 +9892,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
         <v>35.03264989479647</v>
@@ -10185,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
         <v>20.61111433333334</v>
@@ -10197,10 +10199,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>742.2139937908412</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10431,13 +10433,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>781.6471621574452</v>
+        <v>534.215094511344</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10446,7 +10448,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
         <v>23.67291939414415</v>
@@ -10583,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>758.5002654165255</v>
+        <v>726.5568076874005</v>
       </c>
       <c r="L35" t="n">
-        <v>324.3764525304026</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
         <v>1051.861668373228</v>
@@ -10601,10 +10603,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
         <v>153.7764225027789</v>
@@ -10659,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
@@ -10674,7 +10676,7 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>667.8705234938802</v>
       </c>
       <c r="O36" t="n">
         <v>921.6378271075471</v>
@@ -10686,7 +10688,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
-        <v>81.27285547607089</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,19 +10828,19 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>849.7962292804214</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>493.0472488628404</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
@@ -10902,28 +10904,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>354.5569311593796</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>230.3933721714771</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>944.365164470117</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>943.4843849369258</v>
+        <v>791.8999401147988</v>
       </c>
       <c r="N41" t="n">
-        <v>943.3327448719401</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>51.88812489228231</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
         <v>20.61111433333334</v>
@@ -11142,10 +11144,10 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
@@ -11157,7 +11159,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>98.46512063667564</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11297,25 +11299,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>944.365164470117</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>943.4843849369258</v>
+        <v>883.9207714806259</v>
       </c>
       <c r="N44" t="n">
-        <v>943.3327448719401</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>51.88812489228231</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
         <v>35.03264989479647</v>
@@ -11376,10 +11378,10 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
@@ -11388,13 +11390,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>293.0516819980064</v>
       </c>
       <c r="P45" t="n">
-        <v>42.21574383418027</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>106.5207073584907</v>
@@ -23273,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>163.1192995696798</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,10 +23311,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>152.1369473363744</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>236.5838919079027</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23498,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>17.45242388577378</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23653,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>149.1561433864761</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>62.56438703781069</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23950,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>260.6269701000159</v>
+        <v>50.17484309332377</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>236.5838919079025</v>
+        <v>269.9767848431156</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>3.606615913624722</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>83.07145248366827</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24423,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,13 +24606,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>99.48085225679732</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>106.2309441183558</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,22 +24891,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>172.6835682228507</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>108.9108341743201</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>66.3924592046819</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>153.4170364007674</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25318,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25360,16 +25362,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>53.3281253757179</v>
       </c>
       <c r="T37" t="n">
-        <v>240.1486115953966</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25561,10 +25563,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -25597,16 +25599,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>59.64236734312274</v>
+        <v>32.05507681960958</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25631,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>13.79088007720657</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>91.3289436789951</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>99.25824658694378</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25922,16 +25924,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>141.8559177367985</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26026,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>62.55316220733572</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
         <v>98.77088257712678</v>
@@ -26071,13 +26073,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>129.5284158597474</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>495815.5401527601</v>
+        <v>496274.503843153</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>495815.5401527601</v>
+        <v>497760.527582652</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>495815.5401527601</v>
+        <v>497760.527582652</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>391442.1338481611</v>
+        <v>492307.3093843621</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>391442.133848161</v>
+        <v>492307.3093843622</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>492307.3093843622</v>
+        <v>492307.3093843621</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>492307.3093843621</v>
+        <v>492307.3093843622</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>492307.3093843622</v>
+        <v>492307.3093843621</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>492307.3093843621</v>
+        <v>492307.309384362</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>391442.1338481611</v>
+        <v>492307.3093843621</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>391442.1338481611</v>
+        <v>492307.3093843622</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>538759.4679103257</v>
+      </c>
+      <c r="C2" t="n">
         <v>538759.4679103255</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>538759.4679103257</v>
       </c>
-      <c r="D2" t="n">
-        <v>538759.4679103256</v>
-      </c>
       <c r="E2" t="n">
-        <v>413372.7938833159</v>
+        <v>519878.1229021387</v>
       </c>
       <c r="F2" t="n">
-        <v>413372.793883316</v>
+        <v>519878.1229021388</v>
       </c>
       <c r="G2" t="n">
+        <v>519878.1229021386</v>
+      </c>
+      <c r="H2" t="n">
+        <v>519878.1229021386</v>
+      </c>
+      <c r="I2" t="n">
+        <v>519878.1229021384</v>
+      </c>
+      <c r="J2" t="n">
+        <v>519878.1229021383</v>
+      </c>
+      <c r="K2" t="n">
+        <v>519878.1229021385</v>
+      </c>
+      <c r="L2" t="n">
+        <v>519878.1229021386</v>
+      </c>
+      <c r="M2" t="n">
         <v>519878.1229021387</v>
       </c>
-      <c r="H2" t="n">
+      <c r="N2" t="n">
         <v>519878.1229021387</v>
       </c>
-      <c r="I2" t="n">
-        <v>519878.1229021385</v>
-      </c>
-      <c r="J2" t="n">
-        <v>519878.1229021385</v>
-      </c>
-      <c r="K2" t="n">
-        <v>519878.1229021383</v>
-      </c>
-      <c r="L2" t="n">
-        <v>519878.1229021385</v>
-      </c>
-      <c r="M2" t="n">
-        <v>519878.1229021384</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>519878.1229021389</v>
       </c>
-      <c r="O2" t="n">
-        <v>413372.7938833158</v>
-      </c>
       <c r="P2" t="n">
-        <v>413372.7938833158</v>
+        <v>519878.1229021386</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154625.7206181205</v>
+        <v>162124.6960695912</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361226</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>132763.6680096019</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>102159.9200943099</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.5169427569</v>
+        <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701983</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>110809.3601091333</v>
+        <v>180063.8714551677</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>176510.6008550963</v>
+        <v>171848.3668116666</v>
       </c>
       <c r="C4" t="n">
-        <v>176510.6008550963</v>
+        <v>156753.0758057354</v>
       </c>
       <c r="D4" t="n">
-        <v>176510.6008550963</v>
+        <v>156753.0758057354</v>
       </c>
       <c r="E4" t="n">
-        <v>23382.1328306456</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="F4" t="n">
-        <v>23382.13283064559</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="G4" t="n">
         <v>29432.2870559115</v>
@@ -26445,19 +26447,19 @@
         <v>29432.2870559115</v>
       </c>
       <c r="L4" t="n">
-        <v>29432.2870559115</v>
+        <v>29432.28705591151</v>
       </c>
       <c r="M4" t="n">
-        <v>29432.2870559115</v>
+        <v>29432.28705591149</v>
       </c>
       <c r="N4" t="n">
         <v>29432.2870559115</v>
       </c>
       <c r="O4" t="n">
-        <v>23382.13283064559</v>
+        <v>29432.28705591151</v>
       </c>
       <c r="P4" t="n">
-        <v>23382.1328306456</v>
+        <v>29432.28705591151</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61680.71427022832</v>
+        <v>63041.22282216125</v>
       </c>
       <c r="C5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>55088.02981987964</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>55088.02981987964</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26500,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>55088.02981987964</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>55088.02981987964</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>145942.4321668804</v>
+        <v>141745.1822069067</v>
       </c>
       <c r="C6" t="n">
-        <v>300568.1527850011</v>
+        <v>291153.3073935497</v>
       </c>
       <c r="D6" t="n">
-        <v>300568.1527850011</v>
+        <v>314560.1410671622</v>
       </c>
       <c r="E6" t="n">
-        <v>202138.9632231887</v>
+        <v>196956.4171011569</v>
       </c>
       <c r="F6" t="n">
-        <v>334902.6312327908</v>
+        <v>412695.7736577976</v>
       </c>
       <c r="G6" t="n">
-        <v>310535.8535634876</v>
+        <v>412695.7736577974</v>
       </c>
       <c r="H6" t="n">
+        <v>412695.7736577974</v>
+      </c>
+      <c r="I6" t="n">
+        <v>412695.7736577972</v>
+      </c>
+      <c r="J6" t="n">
+        <v>286118.5050775083</v>
+      </c>
+      <c r="K6" t="n">
+        <v>394049.1733007775</v>
+      </c>
+      <c r="L6" t="n">
+        <v>412695.7736577974</v>
+      </c>
+      <c r="M6" t="n">
+        <v>232631.9022026299</v>
+      </c>
+      <c r="N6" t="n">
         <v>412695.7736577975</v>
       </c>
-      <c r="I6" t="n">
-        <v>412695.7736577973</v>
-      </c>
-      <c r="J6" t="n">
-        <v>291973.2567150404</v>
-      </c>
-      <c r="K6" t="n">
-        <v>412695.7736577971</v>
-      </c>
-      <c r="L6" t="n">
-        <v>412695.7736577973</v>
-      </c>
-      <c r="M6" t="n">
-        <v>301886.413548664</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>412695.7736577977</v>
       </c>
-      <c r="O6" t="n">
-        <v>334902.6312327905</v>
-      </c>
       <c r="P6" t="n">
-        <v>334902.6312327906</v>
+        <v>412695.7736577974</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>906.0531220374942</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>906.0531220374941</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>906.0531220374941</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>906.0531220374941</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162626</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>444.6532162771599</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>372.7307955353627</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162626</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771597</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162626</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771599</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>372.7307955353627</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>338.9220873587531</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27397,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
@@ -27445,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>23.08859786401206</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27543,7 +27545,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27585,13 +27587,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>63.44842703263798</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>176.4120738284468</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>270.0354397865411</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27631,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,16 +27675,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>192.9519787292741</v>
       </c>
     </row>
     <row r="6">
@@ -27780,7 +27782,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>126.0615561372445</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>123.7704285570327</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27855,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>64.1108892109676</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27904,7 +27906,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
@@ -27916,10 +27918,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>318.5130220887418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>86.60321659162796</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
@@ -28026,10 +28028,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>47.62221948069276</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>324.0137127175907</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="N2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.304553167390613</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
         <v>118.7437726079824</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="L3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>116.1280969225081</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>359.9096973612264</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>461.3999057603342</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34857,10 +34859,10 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937749</v>
+        <v>70.22154884547923</v>
       </c>
       <c r="L4" t="n">
-        <v>111.0748027298626</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
         <v>395.137166636617</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>77.19886752926237</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>442.7574853255731</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>461.3999057603342</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,16 +35096,16 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937756</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
         <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
-        <v>364.0963993311495</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
         <v>359.0183117977405</v>
@@ -35170,22 +35172,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>419.1474984608589</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35194,7 +35196,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="P9" t="n">
-        <v>168.3155769623498</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K10" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L10" t="n">
         <v>358.2720417115361</v>
@@ -35349,7 +35351,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,25 +35409,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>290.0087389389225</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>906.0531220374942</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M11" t="n">
-        <v>906.0531220374942</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>906.0531220374942</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
         <v>460.6924035395789</v>
@@ -35495,22 +35497,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>906.0531220374942</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>50.0127514297575</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>906.0531220374941</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>906.0531220374941</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>199.0809077034619</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35732,13 +35734,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>906.0531220374941</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>94.78056922860313</v>
+        <v>459.6574502083422</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35749,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35899,7 +35901,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>62.48282579338804</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35966,22 +35968,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>974.1840197330221</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>459.6574502083422</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,22 +36123,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>324.5260868755249</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>811.4841868477985</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
         <v>460.6924035395789</v>
@@ -36200,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>130.1896540801013</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439022</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36373,7 +36375,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36592,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>666.8514437878999</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36610,10 +36612,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36917,10 +36919,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>719.1172132785132</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37151,13 +37153,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>760.3041339439036</v>
+        <v>512.8720662978023</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>722.7356646217162</v>
+        <v>690.7922068925911</v>
       </c>
       <c r="L35" t="n">
-        <v>286.0644100977797</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
         <v>1014.430405473796</v>
@@ -37321,10 +37323,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
         <v>118.7437726079824</v>
@@ -37379,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37394,7 +37396,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>646.5274952803386</v>
       </c>
       <c r="O36" t="n">
         <v>898.4659373853249</v>
@@ -37406,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>57.59993608192674</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37546,19 +37548,19 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>811.4841868477985</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>455.4718870526091</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
@@ -37622,28 +37624,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>332.04184444515</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>208.6225309666485</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>906.0531220374941</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>906.0531220374941</v>
+        <v>754.4686772153671</v>
       </c>
       <c r="N41" t="n">
-        <v>906.0531220374941</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>15.76345028768426</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37862,10 +37864,10 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37877,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>75.71808234769713</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,25 +38019,25 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>906.0531220374941</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>906.0531220374941</v>
+        <v>846.4895085811942</v>
       </c>
       <c r="N44" t="n">
-        <v>906.0531220374941</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>15.76345028768426</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,10 +38098,10 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38108,13 +38110,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="P45" t="n">
-        <v>20.4449026293516</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>82.84778796434657</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_37.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2723082.420760696</v>
+        <v>2722385.759555604</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11843801.51954497</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114754</v>
+        <v>612367.946211476</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>162.5563330733268</v>
       </c>
       <c r="D2" t="n">
-        <v>80.13760724809656</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
         <v>21.71717045362101</v>
@@ -676,10 +676,10 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
@@ -718,7 +718,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>130.909649679558</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>104.9852699734185</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>20.87293999249374</v>
@@ -913,10 +913,10 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>208.8991231072728</v>
       </c>
       <c r="Y5" t="n">
-        <v>208.3319186153844</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1056,10 +1056,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
@@ -1071,7 +1071,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>16.29674966968264</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>257.4638774372665</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1122,7 +1122,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>181.8075806088684</v>
       </c>
       <c r="D8" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>230.7788055297379</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>75.08038855286904</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
@@ -1341,16 +1341,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>276.7891767748355</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>12.45745267233576</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -1578,7 +1578,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1596,7 +1596,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>70.66230422638809</v>
       </c>
     </row>
     <row r="14">
@@ -1669,7 +1669,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>392.427436202655</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -1770,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.15366458398732</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
@@ -1824,13 +1824,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>209.5394927514014</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486159</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>221.9290366958883</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2083,7 +2083,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868337</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
@@ -2137,7 +2137,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095503</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
@@ -2241,25 +2241,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2298,13 +2298,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>8.917567874935775</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>158.0769892308723</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>168.9164623971668</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
@@ -2766,22 +2766,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>218.7757544134943</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>133.9073134702971</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2955,13 +2955,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>68.22238607350829</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
@@ -3012,7 +3012,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>98.15366458399308</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3280,7 +3280,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>400.2956717864463</v>
+        <v>400.2956717864449</v>
       </c>
       <c r="H35" t="n">
         <v>294.8896947407055</v>
@@ -3429,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.1055716303386</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>200.1143878900203</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3523,7 +3523,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396302</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3666,19 +3666,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>208.8508774767494</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>205.3931121155064</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3729,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3748,10 +3748,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453622</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924929</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
@@ -3915,7 +3915,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060533</v>
+        <v>155.9291457253065</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3960,10 +3960,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>172.8456332022683</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3982,7 +3982,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068506</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -4143,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>101.9929615813393</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4203,7 +4203,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>152.0898487279629</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>518.593761001569</v>
+        <v>265.4716402546781</v>
       </c>
       <c r="C2" t="n">
-        <v>495.7334350552732</v>
+        <v>101.2733240189945</v>
       </c>
       <c r="D2" t="n">
-        <v>414.7863570268928</v>
+        <v>82.02110724439883</v>
       </c>
       <c r="E2" t="n">
-        <v>392.8498212151544</v>
+        <v>60.08457143266044</v>
       </c>
       <c r="F2" t="n">
-        <v>371.7660434449587</v>
+        <v>39.00079366246474</v>
       </c>
       <c r="G2" t="n">
-        <v>371.4673850748114</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="H2" t="n">
-        <v>73.59900654884622</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="I2" t="n">
         <v>38.70213529231743</v>
       </c>
       <c r="J2" t="n">
-        <v>401.305594109213</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="K2" t="n">
-        <v>401.305594109213</v>
+        <v>498.2899918885871</v>
       </c>
       <c r="L2" t="n">
-        <v>401.305594109213</v>
+        <v>977.2289161310152</v>
       </c>
       <c r="M2" t="n">
-        <v>880.2445183516411</v>
+        <v>977.2289161310152</v>
       </c>
       <c r="N2" t="n">
-        <v>880.2445183516411</v>
+        <v>1456.167840373443</v>
       </c>
       <c r="O2" t="n">
-        <v>1359.183442594069</v>
+        <v>1456.167840373443</v>
       </c>
       <c r="P2" t="n">
-        <v>1361.464950229786</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="Q2" t="n">
-        <v>1817.550429733969</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R2" t="n">
         <v>1935.106764615871</v>
       </c>
       <c r="S2" t="n">
-        <v>1830.739470489012</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="T2" t="n">
-        <v>1609.813899533645</v>
+        <v>1714.181193660505</v>
       </c>
       <c r="U2" t="n">
-        <v>1351.458990130057</v>
+        <v>1455.826284256917</v>
       </c>
       <c r="V2" t="n">
-        <v>1351.458990130057</v>
+        <v>1098.336869383166</v>
       </c>
       <c r="W2" t="n">
-        <v>1351.458990130057</v>
+        <v>1098.336869383166</v>
       </c>
       <c r="X2" t="n">
-        <v>939.7389912978047</v>
+        <v>686.6168705509137</v>
       </c>
       <c r="Y2" t="n">
-        <v>938.442125293099</v>
+        <v>281.2796005058041</v>
       </c>
     </row>
     <row r="3">
@@ -4412,25 +4412,25 @@
         <v>310.3996245719085</v>
       </c>
       <c r="K3" t="n">
+        <v>310.3996245719085</v>
+      </c>
+      <c r="L3" t="n">
+        <v>310.3996245719085</v>
+      </c>
+      <c r="M3" t="n">
         <v>789.3385488143367</v>
       </c>
-      <c r="L3" t="n">
-        <v>1268.277473056765</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1383.244289010048</v>
-      </c>
       <c r="N3" t="n">
-        <v>1383.244289010048</v>
+        <v>822.2860546829165</v>
       </c>
       <c r="O3" t="n">
-        <v>1383.244289010048</v>
+        <v>822.2860546829165</v>
       </c>
       <c r="P3" t="n">
-        <v>1383.244289010048</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="Q3" t="n">
-        <v>1847.389765872827</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="R3" t="n">
         <v>1847.389765872827</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>786.593921822241</v>
+        <v>672.4316465070681</v>
       </c>
       <c r="C4" t="n">
-        <v>786.593921822241</v>
+        <v>500.4590833859841</v>
       </c>
       <c r="D4" t="n">
-        <v>786.593921822241</v>
+        <v>337.1423105127548</v>
       </c>
       <c r="E4" t="n">
-        <v>620.3857159750945</v>
+        <v>170.9341046656083</v>
       </c>
       <c r="F4" t="n">
-        <v>448.523941749655</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="G4" t="n">
-        <v>282.2669720438871</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="H4" t="n">
-        <v>138.4707035520415</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="I4" t="n">
         <v>38.70213529231743</v>
       </c>
       <c r="J4" t="n">
-        <v>96.19346351647545</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="K4" t="n">
         <v>165.7127968734999</v>
@@ -4512,28 +4512,28 @@
         <v>1935.106764615871</v>
       </c>
       <c r="R4" t="n">
-        <v>1935.106764615871</v>
+        <v>1888.068151303045</v>
       </c>
       <c r="S4" t="n">
-        <v>1829.061037369994</v>
+        <v>1888.068151303045</v>
       </c>
       <c r="T4" t="n">
-        <v>1585.721689595894</v>
+        <v>1888.068151303045</v>
       </c>
       <c r="U4" t="n">
-        <v>1585.721689595894</v>
+        <v>1888.068151303045</v>
       </c>
       <c r="V4" t="n">
-        <v>1304.010222203923</v>
+        <v>1606.356683911074</v>
       </c>
       <c r="W4" t="n">
-        <v>1029.157818376436</v>
+        <v>1331.504280083587</v>
       </c>
       <c r="X4" t="n">
-        <v>786.593921822241</v>
+        <v>1088.940383529392</v>
       </c>
       <c r="Y4" t="n">
-        <v>786.593921822241</v>
+        <v>862.5976152191338</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>866.7353935451185</v>
+        <v>1342.050951843433</v>
       </c>
       <c r="C5" t="n">
-        <v>439.8346635584186</v>
+        <v>915.1502218567327</v>
       </c>
       <c r="D5" t="n">
-        <v>420.5824467838229</v>
+        <v>491.857601041733</v>
       </c>
       <c r="E5" t="n">
-        <v>398.6459109720846</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F5" t="n">
-        <v>377.5621332018889</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>377.2634748317415</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
@@ -4570,19 +4570,19 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>44.49822504924753</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="L5" t="n">
-        <v>595.1637600336857</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="M5" t="n">
-        <v>595.1637600336857</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="N5" t="n">
-        <v>595.1637600336857</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O5" t="n">
-        <v>1145.829295018124</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
         <v>1651.269438076291</v>
@@ -4594,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>1862.189048931929</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V5" t="n">
-        <v>1504.699634058179</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="W5" t="n">
-        <v>1504.699634058179</v>
+        <v>1570.164993359136</v>
       </c>
       <c r="X5" t="n">
-        <v>1497.02003926633</v>
+        <v>1359.155778099264</v>
       </c>
       <c r="Y5" t="n">
-        <v>1286.583757836649</v>
+        <v>1357.858912094558</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>595.1637600336857</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L6" t="n">
-        <v>595.1637600336857</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M6" t="n">
-        <v>595.1637600336857</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N6" t="n">
-        <v>1145.829295018124</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O6" t="n">
-        <v>1145.829295018124</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P6" t="n">
-        <v>1696.494830002562</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>665.0551063900352</v>
+        <v>983.8830790816388</v>
       </c>
       <c r="C7" t="n">
-        <v>665.0551063900352</v>
+        <v>811.9105159605548</v>
       </c>
       <c r="D7" t="n">
-        <v>665.0551063900352</v>
+        <v>648.5937430873255</v>
       </c>
       <c r="E7" t="n">
-        <v>498.8469005428888</v>
+        <v>482.385537240179</v>
       </c>
       <c r="F7" t="n">
-        <v>326.9851263174492</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="G7" t="n">
-        <v>160.7281566116813</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H7" t="n">
         <v>144.2667933089716</v>
@@ -4725,7 +4725,7 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K7" t="n">
         <v>328.5171544792433</v>
@@ -4755,22 +4755,22 @@
         <v>2177.87263914955</v>
       </c>
       <c r="T7" t="n">
-        <v>1934.53329137545</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="U7" t="n">
-        <v>1654.348842875754</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="V7" t="n">
-        <v>1372.637375483783</v>
+        <v>1917.808116485644</v>
       </c>
       <c r="W7" t="n">
-        <v>1097.784971656296</v>
+        <v>1642.955712658157</v>
       </c>
       <c r="X7" t="n">
-        <v>855.2210751021008</v>
+        <v>1400.391816103962</v>
       </c>
       <c r="Y7" t="n">
-        <v>855.2210751021008</v>
+        <v>1174.049047793704</v>
       </c>
     </row>
     <row r="8">
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>767.0800483381174</v>
+        <v>1537.731517970704</v>
       </c>
       <c r="C8" t="n">
-        <v>744.2197223918216</v>
+        <v>1354.087497153665</v>
       </c>
       <c r="D8" t="n">
-        <v>724.9675056172259</v>
+        <v>1334.83528037907</v>
       </c>
       <c r="E8" t="n">
-        <v>703.0309698054875</v>
+        <v>908.8583405269275</v>
       </c>
       <c r="F8" t="n">
-        <v>681.9471920352918</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G8" t="n">
-        <v>277.6081296247404</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>44.49822504924753</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>595.1637600336857</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M8" t="n">
-        <v>1145.829295018124</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N8" t="n">
-        <v>1696.494830002562</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O8" t="n">
-        <v>2224.911252462377</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="P8" t="n">
         <v>2224.911252462377</v>
@@ -4834,22 +4834,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2003.98568150701</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>2003.98568150701</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V8" t="n">
-        <v>2003.98568150701</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="W8" t="n">
-        <v>2003.98568150701</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="X8" t="n">
-        <v>1592.265682674757</v>
+        <v>1958.87674826694</v>
       </c>
       <c r="Y8" t="n">
-        <v>1186.928412629647</v>
+        <v>1957.579882262234</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>595.1637600336857</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L9" t="n">
-        <v>1145.829295018124</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M9" t="n">
-        <v>1145.829295018124</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N9" t="n">
-        <v>1696.494830002562</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O9" t="n">
-        <v>1853.185855629757</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>702.082607085077</v>
+        <v>964.3625747002551</v>
       </c>
       <c r="C10" t="n">
-        <v>530.110043963993</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="D10" t="n">
-        <v>454.2712676479637</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>288.0630618008172</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>288.0630618008172</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
         <v>288.0630618008172</v>
@@ -4989,25 +4989,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U10" t="n">
-        <v>1727.553143168988</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="V10" t="n">
-        <v>1445.841675777017</v>
+        <v>1898.28761210426</v>
       </c>
       <c r="W10" t="n">
-        <v>1170.98927194953</v>
+        <v>1623.435208276773</v>
       </c>
       <c r="X10" t="n">
-        <v>928.425375395335</v>
+        <v>1380.871311722579</v>
       </c>
       <c r="Y10" t="n">
-        <v>702.082607085077</v>
+        <v>1154.528543412321</v>
       </c>
     </row>
     <row r="11">
@@ -5026,7 +5026,7 @@
         <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F11" t="n">
         <v>839.4070255988736</v>
@@ -5035,52 +5035,52 @@
         <v>435.0679631883222</v>
       </c>
       <c r="H11" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K11" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N11" t="n">
-        <v>2988.069926596602</v>
+        <v>2988.0699265966</v>
       </c>
       <c r="O11" t="n">
-        <v>3833.214576747414</v>
+        <v>3833.214576747412</v>
       </c>
       <c r="P11" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="Q11" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R11" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S11" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T11" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X11" t="n">
         <v>3365.887132399955</v>
@@ -5111,31 +5111,31 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H12" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J12" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K12" t="n">
-        <v>964.4851292537592</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L12" t="n">
-        <v>964.4851292537592</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M12" t="n">
-        <v>964.4851292537592</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N12" t="n">
-        <v>964.4851292537592</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O12" t="n">
-        <v>1364.825557038856</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P12" t="n">
         <v>1364.825557038856</v>
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>552.7245472657505</v>
+        <v>841.6494985835417</v>
       </c>
       <c r="C13" t="n">
-        <v>552.7245472657505</v>
+        <v>841.6494985835417</v>
       </c>
       <c r="D13" t="n">
-        <v>552.7245472657505</v>
+        <v>678.3327257103124</v>
       </c>
       <c r="E13" t="n">
-        <v>386.516341418604</v>
+        <v>512.1245198631659</v>
       </c>
       <c r="F13" t="n">
-        <v>214.6545671931645</v>
+        <v>512.1245198631659</v>
       </c>
       <c r="G13" t="n">
-        <v>202.0712816655526</v>
+        <v>345.8675501573981</v>
       </c>
       <c r="H13" t="n">
-        <v>202.0712816655526</v>
+        <v>202.0712816655525</v>
       </c>
       <c r="I13" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K13" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L13" t="n">
         <v>741.0109641302445</v>
@@ -5226,25 +5226,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T13" t="n">
-        <v>1822.202732251165</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U13" t="n">
-        <v>1542.018283751469</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V13" t="n">
-        <v>1260.306816359498</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W13" t="n">
-        <v>985.454412532011</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X13" t="n">
-        <v>742.8905159778161</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="Y13" t="n">
-        <v>742.8905159778161</v>
+        <v>841.6494985835417</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
         <v>1690.508147261616</v>
@@ -5266,55 +5266,55 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H14" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>464.9061722227241</v>
+        <v>195.4640539534656</v>
       </c>
       <c r="K14" t="n">
-        <v>1180.414480198223</v>
+        <v>195.4640539534656</v>
       </c>
       <c r="L14" t="n">
-        <v>1180.414480198223</v>
+        <v>1125.089101572742</v>
       </c>
       <c r="M14" t="n">
-        <v>2011.818868109901</v>
+        <v>2129.375202991801</v>
       </c>
       <c r="N14" t="n">
-        <v>2988.069926596602</v>
+        <v>3105.626261478501</v>
       </c>
       <c r="O14" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629314</v>
       </c>
       <c r="P14" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787241</v>
       </c>
       <c r="Q14" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="R14" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S14" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164565</v>
       </c>
       <c r="T14" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209198</v>
       </c>
       <c r="U14" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.48789580561</v>
       </c>
       <c r="V14" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931859</v>
       </c>
       <c r="W14" t="n">
         <v>3777.607131232208</v>
@@ -5333,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>669.4262044372838</v>
+        <v>669.4262044372837</v>
       </c>
       <c r="C15" t="n">
-        <v>551.9203009547886</v>
+        <v>551.9203009547884</v>
       </c>
       <c r="D15" t="n">
-        <v>448.0803424700736</v>
+        <v>448.0803424700735</v>
       </c>
       <c r="E15" t="n">
-        <v>343.3784087430108</v>
+        <v>343.3784087430107</v>
       </c>
       <c r="F15" t="n">
         <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H15" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J15" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L15" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M15" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N15" t="n">
-        <v>557.3635891120873</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O15" t="n">
-        <v>1446.844867123559</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P15" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q15" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R15" t="n">
         <v>1910.990343986338</v>
@@ -5399,10 +5399,10 @@
         <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>938.0461025040541</v>
+        <v>938.046102504054</v>
       </c>
       <c r="Y15" t="n">
-        <v>798.3532138573465</v>
+        <v>798.3532138573464</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>913.8534934449018</v>
+        <v>373.4203922683138</v>
       </c>
       <c r="C16" t="n">
-        <v>741.8809303238178</v>
+        <v>201.4478291472298</v>
       </c>
       <c r="D16" t="n">
-        <v>578.5641574505885</v>
+        <v>201.4478291472298</v>
       </c>
       <c r="E16" t="n">
-        <v>412.355951603442</v>
+        <v>201.4478291472298</v>
       </c>
       <c r="F16" t="n">
-        <v>412.355951603442</v>
+        <v>201.4478291472298</v>
       </c>
       <c r="G16" t="n">
-        <v>246.0989818976742</v>
+        <v>201.4478291472298</v>
       </c>
       <c r="H16" t="n">
-        <v>102.3027134058285</v>
+        <v>201.4478291472298</v>
       </c>
       <c r="I16" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K16" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L16" t="n">
         <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.19675910049</v>
       </c>
       <c r="N16" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976526</v>
       </c>
       <c r="O16" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656289</v>
       </c>
       <c r="P16" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.71561057819</v>
       </c>
       <c r="Q16" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818951</v>
       </c>
       <c r="R16" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818951</v>
       </c>
       <c r="S16" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338086</v>
       </c>
       <c r="T16" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563986</v>
       </c>
       <c r="U16" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064291</v>
       </c>
       <c r="V16" t="n">
-        <v>1542.018283751469</v>
+        <v>1307.345429672319</v>
       </c>
       <c r="W16" t="n">
-        <v>1330.362230467225</v>
+        <v>1032.493025844832</v>
       </c>
       <c r="X16" t="n">
-        <v>1330.362230467225</v>
+        <v>789.9291292906374</v>
       </c>
       <c r="Y16" t="n">
-        <v>1104.019462156967</v>
+        <v>563.5863609803795</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063314</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5515,52 +5515,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596599</v>
       </c>
       <c r="N17" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596599</v>
       </c>
       <c r="O17" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747411</v>
       </c>
       <c r="P17" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905339</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409522</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="18">
@@ -5570,52 +5570,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>669.4262044372838</v>
+        <v>669.4262044372837</v>
       </c>
       <c r="C18" t="n">
-        <v>551.9203009547886</v>
+        <v>551.9203009547884</v>
       </c>
       <c r="D18" t="n">
-        <v>448.0803424700736</v>
+        <v>448.0803424700735</v>
       </c>
       <c r="E18" t="n">
-        <v>343.3784087430108</v>
+        <v>343.3784087430107</v>
       </c>
       <c r="F18" t="n">
         <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H18" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>109.7493563677404</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J18" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>109.7493563677404</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>946.5481644506465</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M18" t="n">
-        <v>946.5481644506465</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5636,10 +5636,10 @@
         <v>1101.523448737391</v>
       </c>
       <c r="X18" t="n">
-        <v>938.0461025040541</v>
+        <v>938.046102504054</v>
       </c>
       <c r="Y18" t="n">
-        <v>798.3532138573465</v>
+        <v>798.3532138573464</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3679.833785329949</v>
+        <v>446.137050752352</v>
       </c>
       <c r="C19" t="n">
-        <v>3507.861222208865</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>3344.544449335636</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>3344.544449335636</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M19" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>4897.962009497735</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>4654.622661723635</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>4654.622661723635</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>4372.911194331664</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>4148.740450194403</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>3906.176553640208</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>3679.833785329949</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
         <v>2113.800768076616</v>
@@ -5743,7 +5743,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H20" t="n">
         <v>137.1995846623573</v>
@@ -5752,52 +5752,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K20" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2184.700581617281</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596602</v>
+        <v>2988.069926596599</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747414</v>
+        <v>3833.214576747411</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905339</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409522</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164565</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209198</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372837</v>
       </c>
       <c r="C21" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547884</v>
       </c>
       <c r="D21" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700735</v>
       </c>
       <c r="E21" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430107</v>
       </c>
       <c r="F21" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>3359.824132948609</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J21" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="K21" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="L21" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="M21" t="n">
-        <v>4362.434577686964</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="N21" t="n">
-        <v>5115.135670291427</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="O21" t="n">
-        <v>5115.135670291427</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P21" t="n">
-        <v>5115.135670291427</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
-        <v>5115.135670291427</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S21" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T21" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U21" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V21" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W21" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X21" t="n">
-        <v>4142.191428809144</v>
+        <v>938.046102504054</v>
       </c>
       <c r="Y21" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573464</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3674.069428056012</v>
+        <v>446.137050752352</v>
       </c>
       <c r="C22" t="n">
-        <v>3674.069428056012</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>3510.752655182783</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>3344.544449335636</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>4897.962009497735</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>4654.622661723635</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>4374.43821322394</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>4365.430568905823</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>4090.578165078336</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>4090.578165078336</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>3864.235396768077</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5998,19 +5998,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>3114.325629236558</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N23" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6065,28 +6065,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>730.647150085061</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>730.647150085061</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q24" t="n">
         <v>1910.990343986338</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>843.7708094800807</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>671.7982463589967</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>512.1245198631661</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>512.1245198631661</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6177,22 +6177,22 @@
         <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>1869.241345563992</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>1587.529878172021</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>1312.677474344533</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>1070.113577790339</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>843.7708094800807</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6308,25 +6308,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N27" t="n">
-        <v>1158.289251381874</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>1582.26891798564</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3682.614429408222</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C28" t="n">
-        <v>3682.614429408222</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D28" t="n">
-        <v>3682.614429408222</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E28" t="n">
-        <v>3516.406223561076</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F28" t="n">
-        <v>3344.544449335636</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G28" t="n">
-        <v>3178.287479629868</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H28" t="n">
-        <v>3034.491211138023</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>4897.962009497735</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>4654.622661723635</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="U28" t="n">
-        <v>4374.43821322394</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="V28" t="n">
-        <v>4092.726745831969</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="W28" t="n">
-        <v>3817.874342004482</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X28" t="n">
-        <v>3682.614429408222</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y28" t="n">
-        <v>3682.614429408222</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="29">
@@ -6463,25 +6463,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
         <v>4997.579335409525</v>
@@ -6539,31 +6539,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>109.7493563677404</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K30" t="n">
-        <v>109.7493563677404</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L30" t="n">
-        <v>109.7493563677404</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>775.6620294727279</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C31" t="n">
-        <v>603.6894663516439</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D31" t="n">
-        <v>440.3726934784146</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E31" t="n">
-        <v>274.1644876312681</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>1996.630578940913</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U31" t="n">
-        <v>1716.446130441218</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V31" t="n">
-        <v>1434.734663049246</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W31" t="n">
-        <v>1434.734663049246</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X31" t="n">
-        <v>1192.170766495052</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y31" t="n">
-        <v>965.8279981847936</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="32">
@@ -6700,25 +6700,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2011.818868109901</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N32" t="n">
-        <v>2988.069926596602</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O32" t="n">
-        <v>3833.214576747414</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q32" t="n">
         <v>4997.579335409525</v>
@@ -6776,31 +6776,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L33" t="n">
-        <v>939.1015214887346</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M33" t="n">
-        <v>939.1015214887346</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N33" t="n">
-        <v>1446.844867123559</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O33" t="n">
-        <v>1446.844867123559</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P33" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3205.84032174079</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>3033.867758619706</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>3033.867758619706</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>2934.722642878299</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>4945.000622810562</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>4701.661275036462</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>4421.476826536767</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>4139.765359144795</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>3864.912955317308</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>3622.349058763114</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>3396.006290452855</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261615</v>
       </c>
       <c r="E35" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988744</v>
+        <v>839.4070255988729</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H35" t="n">
         <v>137.1995846623573</v>
@@ -6937,52 +6937,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K35" t="n">
-        <v>786.1869982294937</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1715.81204584877</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M35" t="n">
-        <v>2720.098147267829</v>
+        <v>2011.818868109899</v>
       </c>
       <c r="N35" t="n">
-        <v>3696.34920575453</v>
+        <v>2988.0699265966</v>
       </c>
       <c r="O35" t="n">
-        <v>4541.493855905342</v>
+        <v>3833.214576747412</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="36">
@@ -7007,37 +7007,37 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G36" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H36" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>381.4468456473314</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K36" t="n">
-        <v>381.4468456473314</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L36" t="n">
-        <v>381.4468456473314</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M36" t="n">
-        <v>381.4468456473314</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="N36" t="n">
-        <v>1021.509065974867</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100496</v>
       </c>
       <c r="N37" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976532</v>
       </c>
       <c r="O37" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656295</v>
       </c>
       <c r="P37" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578196</v>
       </c>
       <c r="Q37" t="n">
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2119.408873334071</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>2119.408873334071</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U37" t="n">
-        <v>2119.408873334071</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V37" t="n">
-        <v>2119.408873334071</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W37" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X37" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y37" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7159,13 +7159,13 @@
         <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988734</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.067963188322</v>
       </c>
       <c r="H38" t="n">
         <v>137.1995846623568</v>
@@ -7174,37 +7174,37 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K38" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1983.783825177544</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2988.069926596602</v>
+        <v>2585.460682495985</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596602</v>
+        <v>3561.711740982686</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747414</v>
+        <v>4406.856391133498</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7244,7 +7244,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H39" t="n">
         <v>102.3027134058285</v>
@@ -7253,22 +7253,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M39" t="n">
-        <v>1158.289251381874</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N39" t="n">
-        <v>1158.289251381874</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O39" t="n">
-        <v>1158.289251381874</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P39" t="n">
         <v>1364.825557038856</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>913.8534934449018</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>741.8809303238178</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>578.5641574505885</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>412.355951603442</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
         <v>102.3027134058285</v>
@@ -7332,10 +7332,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7362,22 +7362,22 @@
         <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>1901.620211038345</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U40" t="n">
-        <v>1621.435762538649</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>1621.435762538649</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>1346.583358711162</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>1104.019462156967</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>1104.019462156967</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D41" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261615</v>
       </c>
       <c r="E41" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F41" t="n">
         <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H41" t="n">
         <v>137.1995846623573</v>
@@ -7411,7 +7411,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K41" t="n">
         <v>1180.414480198223</v>
@@ -7420,43 +7420,43 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2856.963518260713</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N41" t="n">
-        <v>3833.214576747414</v>
+        <v>3444.155406100783</v>
       </c>
       <c r="O41" t="n">
-        <v>3833.214576747414</v>
+        <v>4289.300056251595</v>
       </c>
       <c r="P41" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="Q41" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X41" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="42">
@@ -7481,37 +7481,37 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H42" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J42" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="K42" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="L42" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="M42" t="n">
-        <v>1021.509065974867</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="N42" t="n">
-        <v>1021.509065974867</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="O42" t="n">
-        <v>1910.990343986338</v>
+        <v>999.230634379212</v>
       </c>
       <c r="P42" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q42" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R42" t="n">
         <v>1910.990343986338</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1085.715267670341</v>
+        <v>612.3940204581199</v>
       </c>
       <c r="C43" t="n">
-        <v>913.7427045492574</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="D43" t="n">
-        <v>750.4259316760281</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="E43" t="n">
-        <v>584.2177258288816</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="F43" t="n">
-        <v>412.355951603442</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G43" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
         <v>102.3027134058285</v>
@@ -7569,10 +7569,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L43" t="n">
         <v>741.0109641302445</v>
@@ -7587,34 +7587,34 @@
         <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578192</v>
       </c>
       <c r="Q43" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818954</v>
       </c>
       <c r="R43" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818954</v>
       </c>
       <c r="S43" t="n">
-        <v>2065.542080025268</v>
+        <v>2125.211553217634</v>
       </c>
       <c r="T43" t="n">
-        <v>1822.202732251168</v>
+        <v>1881.872205443534</v>
       </c>
       <c r="U43" t="n">
-        <v>1542.018283751472</v>
+        <v>1601.687756943839</v>
       </c>
       <c r="V43" t="n">
-        <v>1260.306816359501</v>
+        <v>1319.976289551867</v>
       </c>
       <c r="W43" t="n">
-        <v>1085.715267670341</v>
+        <v>1045.12388572438</v>
       </c>
       <c r="X43" t="n">
-        <v>1085.715267670341</v>
+        <v>802.5599891701856</v>
       </c>
       <c r="Y43" t="n">
-        <v>1085.715267670341</v>
+        <v>802.5599891701856</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
         <v>1690.508147261616</v>
@@ -7636,10 +7636,10 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H44" t="n">
         <v>137.1995846623573</v>
@@ -7648,52 +7648,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K44" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>2585.460682495986</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N44" t="n">
-        <v>3561.711740982687</v>
+        <v>2988.0699265966</v>
       </c>
       <c r="O44" t="n">
-        <v>4406.8563911335</v>
+        <v>3833.214576747412</v>
       </c>
       <c r="P44" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="Q44" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R44" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T44" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7718,31 +7718,31 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H45" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>381.4468456473314</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K45" t="n">
-        <v>381.4468456473314</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L45" t="n">
-        <v>381.4468456473314</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M45" t="n">
-        <v>381.4468456473314</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N45" t="n">
-        <v>381.4468456473314</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O45" t="n">
-        <v>648.6278400003578</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P45" t="n">
         <v>1364.825557038856</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3375.975369221655</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C46" t="n">
-        <v>3204.002806100571</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D46" t="n">
-        <v>3204.002806100571</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E46" t="n">
-        <v>3100.979612584067</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F46" t="n">
-        <v>3100.979612584067</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G46" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K46" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L46" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>5115.135670291427</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T46" t="n">
-        <v>4871.796322517327</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U46" t="n">
-        <v>4591.611874017632</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V46" t="n">
-        <v>4309.90040662566</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W46" t="n">
-        <v>4035.048002798173</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X46" t="n">
-        <v>3792.484106243979</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y46" t="n">
-        <v>3566.14133793372</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>499.9947589728594</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>522.0887335865908</v>
       </c>
       <c r="M2" t="n">
-        <v>521.2079540533997</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>521.0563139884139</v>
       </c>
       <c r="O2" t="n">
-        <v>521.167650509992</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>39.87991497762192</v>
+        <v>521.3520529641992</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,28 +8060,28 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>506.1759249873012</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>506.2917778681974</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>139.2248774348361</v>
+        <v>506.8734716662959</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>54.62333717170309</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>505.5475323587966</v>
       </c>
       <c r="Q3" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>91.18620329819123</v>
+        <v>149.258252009462</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8218,22 +8218,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>546.3101998434627</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>548.1209608588846</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
@@ -8291,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
         <v>578.6270469489275</v>
@@ -8306,19 +8306,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q6" t="n">
-        <v>181.0208015487716</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K7" t="n">
-        <v>249.7804132464876</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
@@ -8452,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
         <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>571.1449214366446</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>205.0632038737858</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
@@ -8528,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
         <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>181.4456529820153</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8695,13 +8695,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>878.1144544646206</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>924.179015540608</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>295.0530226965566</v>
@@ -8783,10 +8783,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>427.5561602122188</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q12" t="n">
         <v>491.5808533018869</v>
@@ -8926,16 +8926,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>395.6860795026527</v>
+        <v>123.522323675119</v>
       </c>
       <c r="K14" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>877.2336749314295</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
         <v>1023.391803124043</v>
@@ -8950,7 +8950,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
@@ -9017,19 +9017,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>481.0004784218839</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q15" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9172,19 +9172,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055928</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9242,31 +9242,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>995.5270479465637</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9406,13 +9406,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>848.7638096822445</v>
+        <v>924.1790155406071</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>20.61111433333334</v>
@@ -9488,22 +9488,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>781.6471621574439</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>567.4935903612297</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
         <v>20.61111433333334</v>
@@ -9722,22 +9722,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>649.6845753175837</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9956,28 +9956,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>783.4760236661258</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>270.9648976856321</v>
       </c>
       <c r="Q27" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10120,19 +10120,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10187,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>742.2139937908412</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>426.1551116948253</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,16 +10348,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>952.6858336296069</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>398.9108788555778</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
@@ -10369,7 +10369,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10424,34 +10424,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>534.215094511344</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>293.0516819980064</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,16 +10585,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>726.5568076874005</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>877.2336749314277</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10603,7 +10603,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
         <v>295.0530226965566</v>
@@ -10676,19 +10676,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>667.8705234938802</v>
+        <v>298.7446820670146</v>
       </c>
       <c r="O36" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10828,13 +10828,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>849.7962292804214</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>517.654651463558</v>
       </c>
       <c r="N38" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10843,10 +10843,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,16 +10901,16 @@
         <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
@@ -10919,7 +10919,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>230.3933721714771</v>
+        <v>426.1551116948253</v>
       </c>
       <c r="Q39" t="n">
         <v>491.5808533018869</v>
@@ -11068,19 +11068,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>791.8999401147988</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>370.441013606391</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
         <v>20.61111433333334</v>
@@ -11147,7 +11147,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>951.5880457335786</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
@@ -11156,13 +11156,13 @@
         <v>921.6378271075471</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>391.0586418711355</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
@@ -11305,10 +11305,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>883.9207714806259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>924.179015540608</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11317,10 +11317,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
@@ -11390,10 +11390,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>293.0516819980064</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>745.2028786174529</v>
+        <v>426.1551116948253</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>152.1369473363744</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>153.4170364007673</v>
       </c>
     </row>
     <row r="14">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0.6172179931394624</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>62.56438703781069</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>50.17484309332377</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>269.9767848431156</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>3.606615913624722</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,10 +24417,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>71.98949189919222</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24654,22 +24654,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>22.13019988286467</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>106.2309441183558</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>172.6835682228507</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25083,10 +25083,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>66.3924592046819</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25125,7 +25125,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>53.3281253757179</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>71.98949189919185</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -25602,13 +25602,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>32.05507681960958</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>71.98949189919239</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>12.50455128075001</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>99.25824658694378</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -26031,13 +26031,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>62.55316220733572</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
@@ -26073,7 +26073,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>71.98949189919247</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>492307.3093843621</v>
+        <v>492307.3093843622</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>492307.3093843622</v>
+        <v>492307.309384362</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>492307.3093843622</v>
+        <v>492307.3093843621</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>492307.309384362</v>
+        <v>492307.3093843621</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>492307.3093843622</v>
+        <v>492307.3093843621</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>492307.3093843622</v>
+        <v>492307.3093843621</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>492307.3093843621</v>
+        <v>492307.309384362</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>492307.3093843622</v>
+        <v>492307.3093843621</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>538759.4679103255</v>
+      </c>
+      <c r="C2" t="n">
         <v>538759.4679103257</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>538759.4679103255</v>
       </c>
-      <c r="D2" t="n">
-        <v>538759.4679103257</v>
-      </c>
       <c r="E2" t="n">
+        <v>519878.122902139</v>
+      </c>
+      <c r="F2" t="n">
+        <v>519878.1229021386</v>
+      </c>
+      <c r="G2" t="n">
         <v>519878.1229021387</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>519878.1229021388</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>519878.1229021383</v>
+      </c>
+      <c r="J2" t="n">
+        <v>519878.1229021384</v>
+      </c>
+      <c r="K2" t="n">
+        <v>519878.1229021383</v>
+      </c>
+      <c r="L2" t="n">
+        <v>519878.1229021385</v>
+      </c>
+      <c r="M2" t="n">
         <v>519878.1229021386</v>
       </c>
-      <c r="H2" t="n">
+      <c r="N2" t="n">
+        <v>519878.1229021385</v>
+      </c>
+      <c r="O2" t="n">
         <v>519878.1229021386</v>
       </c>
-      <c r="I2" t="n">
-        <v>519878.1229021384</v>
-      </c>
-      <c r="J2" t="n">
-        <v>519878.1229021383</v>
-      </c>
-      <c r="K2" t="n">
-        <v>519878.1229021385</v>
-      </c>
-      <c r="L2" t="n">
-        <v>519878.1229021386</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>519878.1229021387</v>
-      </c>
-      <c r="N2" t="n">
-        <v>519878.1229021387</v>
-      </c>
-      <c r="O2" t="n">
-        <v>519878.1229021389</v>
-      </c>
-      <c r="P2" t="n">
-        <v>519878.1229021386</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215739.3565566406</v>
+        <v>215739.3565566405</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.813903054426191e-10</v>
       </c>
       <c r="J3" t="n">
         <v>126577.2685802888</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>180063.8714551677</v>
+        <v>180063.8714551675</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,13 +26429,13 @@
         <v>29432.2870559115</v>
       </c>
       <c r="F4" t="n">
-        <v>29432.2870559115</v>
+        <v>29432.28705591149</v>
       </c>
       <c r="G4" t="n">
-        <v>29432.2870559115</v>
+        <v>29432.28705591149</v>
       </c>
       <c r="H4" t="n">
-        <v>29432.2870559115</v>
+        <v>29432.28705591157</v>
       </c>
       <c r="I4" t="n">
         <v>29432.2870559115</v>
@@ -26450,16 +26450,16 @@
         <v>29432.28705591151</v>
       </c>
       <c r="M4" t="n">
-        <v>29432.28705591149</v>
+        <v>29432.28705591155</v>
       </c>
       <c r="N4" t="n">
+        <v>29432.28705591152</v>
+      </c>
+      <c r="O4" t="n">
         <v>29432.2870559115</v>
       </c>
-      <c r="O4" t="n">
-        <v>29432.28705591151</v>
-      </c>
       <c r="P4" t="n">
-        <v>29432.28705591151</v>
+        <v>29432.2870559115</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="F5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="I5" t="n">
         <v>77750.06218842969</v>
@@ -26502,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="P5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>141745.1822069067</v>
+        <v>141745.1822069065</v>
       </c>
       <c r="C6" t="n">
-        <v>291153.3073935497</v>
+        <v>291153.3073935499</v>
       </c>
       <c r="D6" t="n">
-        <v>314560.1410671622</v>
+        <v>314560.141067162</v>
       </c>
       <c r="E6" t="n">
-        <v>196956.4171011569</v>
+        <v>196905.3864389731</v>
       </c>
       <c r="F6" t="n">
-        <v>412695.7736577976</v>
+        <v>412644.7429956131</v>
       </c>
       <c r="G6" t="n">
-        <v>412695.7736577974</v>
+        <v>412644.7429956133</v>
       </c>
       <c r="H6" t="n">
-        <v>412695.7736577974</v>
+        <v>412644.7429956133</v>
       </c>
       <c r="I6" t="n">
-        <v>412695.7736577972</v>
+        <v>412644.7429956127</v>
       </c>
       <c r="J6" t="n">
-        <v>286118.5050775083</v>
+        <v>286067.4744153242</v>
       </c>
       <c r="K6" t="n">
-        <v>394049.1733007775</v>
+        <v>393998.142638593</v>
       </c>
       <c r="L6" t="n">
-        <v>412695.7736577974</v>
+        <v>412644.742995613</v>
       </c>
       <c r="M6" t="n">
-        <v>232631.9022026299</v>
+        <v>232580.8715404456</v>
       </c>
       <c r="N6" t="n">
-        <v>412695.7736577975</v>
+        <v>412644.7429956131</v>
       </c>
       <c r="O6" t="n">
-        <v>412695.7736577977</v>
+        <v>412644.7429956132</v>
       </c>
       <c r="P6" t="n">
-        <v>412695.7736577974</v>
+        <v>412644.7429956133</v>
       </c>
     </row>
   </sheetData>
@@ -26718,10 +26718,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26798,16 +26798,16 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="F4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="G4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="H4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="I4" t="n">
         <v>1278.783917572857</v>
@@ -26822,16 +26822,16 @@
         <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="O4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="P4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
     </row>
   </sheetData>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572622</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="J4" t="n">
         <v>483.7766911539679</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572618</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572622</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
+        <v>260.0753896135061</v>
+      </c>
+      <c r="D2" t="n">
         <v>400</v>
-      </c>
-      <c r="D2" t="n">
-        <v>338.9220873587531</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>39.23350680362719</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>63.44842703263798</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -27675,16 +27675,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
+        <v>198.7036757366574</v>
+      </c>
+      <c r="Y5" t="n">
         <v>400</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>192.9519787292741</v>
       </c>
     </row>
     <row r="6">
@@ -27776,10 +27776,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>126.0615561372445</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27827,13 +27827,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>21.43047528078489</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>240.8241420779644</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>64.1108892109676</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -27918,10 +27918,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>86.60321659162796</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28061,16 +28061,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>2.105175943215897</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28389,7 +28389,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28517,7 +28517,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>-2.99575380870932e-12</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -28857,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.56319401867222e-12</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -30000,7 +30000,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30176,7 +30176,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>7.421607440993208e-13</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30243,7 +30243,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>4.820566934132988e-13</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30471,7 +30471,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30659,7 +30659,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>-5.448550654941484e-13</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>464.2301581780501</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>483.7766911539679</v>
       </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>483.7766911539679</v>
       </c>
-      <c r="P2" t="n">
-        <v>2.304553167390613</v>
-      </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,28 +34780,28 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>483.7766911539679</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
+        <v>33.28030895816143</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>483.7766911539679</v>
-      </c>
-      <c r="M3" t="n">
-        <v>116.1280969225081</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>70.22154884547923</v>
+        <v>128.29359755675</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
       <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="P5" t="n">
-        <v>510.5455990486533</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
@@ -35011,10 +35011,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
         <v>556.2278131155941</v>
@@ -35026,19 +35026,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q6" t="n">
-        <v>158.2737632597931</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K7" t="n">
-        <v>228.8157587937756</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
         <v>358.2720417115361</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N8" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O8" t="n">
-        <v>533.7539620806206</v>
-      </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35415,13 +35415,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>839.8024120319977</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>886.899392706162</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
         <v>274.4419083632233</v>
@@ -35503,10 +35503,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>404.3842704899966</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q12" t="n">
         <v>468.8338150129084</v>
@@ -35646,16 +35646,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>366.2661200170662</v>
+        <v>94.10236418953245</v>
       </c>
       <c r="K14" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>839.8024120319977</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
         <v>986.1121802895968</v>
@@ -35670,7 +35670,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35737,19 +35737,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>459.6574502083422</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q15" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35813,7 +35813,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M16" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366117</v>
       </c>
       <c r="N16" t="n">
         <v>381.3045564404402</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35892,19 +35892,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061611</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35962,31 +35962,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>974.1840197330221</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36126,13 +36126,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>811.4841868477985</v>
+        <v>886.8993927061611</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36208,22 +36208,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>760.3041339439022</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>544.3217006390075</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36366,22 +36366,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>627.1694886033541</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,28 +36676,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>760.3041339439036</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>249.1940564808034</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36840,19 +36840,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
         <v>118.7437726079824</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>719.1172132785132</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>914.373791196984</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>361.4796159561459</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
@@ -37089,7 +37089,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>512.8720662978023</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>690.7922068925911</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>839.8024120319959</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37323,7 +37323,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>274.4419083632233</v>
@@ -37396,19 +37396,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>646.5274952803386</v>
+        <v>277.4016538534729</v>
       </c>
       <c r="O36" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37472,7 +37472,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M37" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366177</v>
       </c>
       <c r="N37" t="n">
         <v>381.3045564404402</v>
@@ -37548,13 +37548,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>811.4841868477985</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>480.2233885641263</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37563,10 +37563,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37639,7 +37639,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>208.6225309666485</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="Q39" t="n">
         <v>468.8338150129084</v>
@@ -37788,19 +37788,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>754.4686772153671</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>333.161390771945</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37867,7 +37867,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37876,13 +37876,13 @@
         <v>898.4659373853249</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>369.2878006663069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37955,7 +37955,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P43" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968669</v>
       </c>
       <c r="Q43" t="n">
         <v>128.2829598391535</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
@@ -38025,10 +38025,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>846.4895085811942</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>886.899392706162</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38037,10 +38037,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38110,10 +38110,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>269.8797922757842</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>723.4320374126243</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>
